--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="2">
   <si>
     <t>Atividade</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,9 +469,15 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -485,15 +491,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -508,12 +516,14 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -527,15 +537,13 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -550,16 +558,14 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -575,10 +581,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -594,11 +600,13 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
@@ -611,14 +619,24 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -630,9 +648,15 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>1</v>
       </c>
@@ -642,7 +666,9 @@
       <c r="L10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -650,74 +676,16 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
